--- a/Module21Hybridframework/data/SessionSuite.xlsx
+++ b/Module21Hybridframework/data/SessionSuite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t>TCID</t>
   </si>
@@ -84,18 +84,12 @@
     <t>Chrome</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>LoginTest</t>
   </si>
   <si>
     <t>ChangePasswordTest</t>
   </si>
   <si>
-    <t>its.thakur@gmail.com</t>
-  </si>
-  <si>
     <t>pass@1234</t>
   </si>
   <si>
@@ -145,6 +139,15 @@
   </si>
   <si>
     <t>scrollTo</t>
+  </si>
+  <si>
+    <t>pranabk.das85@gmail.com</t>
+  </si>
+  <si>
+    <t>parmeshwar</t>
+  </si>
+  <si>
+    <t>Failure</t>
   </si>
 </sst>
 </file>
@@ -245,7 +248,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -255,6 +258,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -582,7 +586,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
@@ -590,7 +594,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>15</v>
@@ -606,7 +610,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +641,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
@@ -650,7 +654,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -663,29 +667,29 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
@@ -698,7 +702,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -711,109 +715,109 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -828,7 +832,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +846,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4"/>
     </row>
@@ -860,7 +864,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -868,16 +872,16 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -894,15 +898,15 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -911,12 +915,12 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -927,13 +931,13 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -944,21 +948,21 @@
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D9" r:id="rId3"/>
-    <hyperlink ref="C9" r:id="rId4"/>
+    <hyperlink ref="D3" r:id="rId1" display="pass@1234"/>
+    <hyperlink ref="D9" r:id="rId2"/>
+    <hyperlink ref="C9" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>

--- a/Module21Hybridframework/data/SessionSuite.xlsx
+++ b/Module21Hybridframework/data/SessionSuite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t>TCID</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>U2</t>
@@ -567,7 +561,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,23 +575,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -610,7 +604,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +627,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -641,183 +635,183 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -832,7 +826,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,115 +840,115 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
